--- a/ET_Workshop/3_Anmeldeliste.xlsx
+++ b/ET_Workshop/3_Anmeldeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\ET_Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AAEA8D1-50FE-4D4E-8157-5519DB0478F1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86CF7A-E3ED-465F-9D75-2E6D7B4DCBC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8750" xr2:uid="{92A9FC4B-87AF-48E3-843D-4ACD9C08CD34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Vorname</t>
   </si>
@@ -58,6 +58,30 @@
   </si>
   <si>
     <t>mandy.klatt@uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>Julia</t>
+  </si>
+  <si>
+    <t>Moeller</t>
+  </si>
+  <si>
+    <t>julia.moeller@uni-leipzig.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UL/Juniorprofessorin für Pädagogische Psychologie mit Schwerpunkt Entwicklung unter Risikobedingungen </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandra </t>
+  </si>
+  <si>
+    <t>Dietrich</t>
+  </si>
+  <si>
+    <t>UL/Erziehungswissenschaftliche Fakultät, Psychologie in Schule und Unterricht</t>
+  </si>
+  <si>
+    <t>sandra.dietrich@uni-leipzig.de</t>
   </si>
 </sst>
 </file>
@@ -145,12 +169,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -469,13 +494,15 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="3"/>
-    <col min="2" max="5" width="28.453125" customWidth="1"/>
+    <col min="2" max="3" width="28.453125" customWidth="1"/>
+    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="5" max="5" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
@@ -531,10 +558,34 @@
       <c r="A4" s="3">
         <v>3</v>
       </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -621,8 +672,10 @@
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{274B34B4-5858-4769-A65B-5784DF4E2685}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{502491C8-959A-453C-8B42-8DFA73F3789A}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{52FB3CF4-9FA8-4942-8AAC-CEFE7D8BD9AE}"/>
+    <hyperlink ref="E5" r:id="rId4" xr:uid="{4BB2172E-1832-44EF-9DC3-E9C032C0CB0C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId5"/>
 </worksheet>
 </file>
--- a/ET_Workshop/3_Anmeldeliste.xlsx
+++ b/ET_Workshop/3_Anmeldeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\ET_Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF86CF7A-E3ED-465F-9D75-2E6D7B4DCBC7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EEF829-03EF-41AB-91D4-C95662C28E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8750" xr2:uid="{92A9FC4B-87AF-48E3-843D-4ACD9C08CD34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Vorname</t>
   </si>
@@ -69,19 +69,31 @@
     <t>julia.moeller@uni-leipzig.de</t>
   </si>
   <si>
-    <t xml:space="preserve">UL/Juniorprofessorin für Pädagogische Psychologie mit Schwerpunkt Entwicklung unter Risikobedingungen </t>
-  </si>
-  <si>
     <t xml:space="preserve">Sandra </t>
   </si>
   <si>
     <t>Dietrich</t>
   </si>
   <si>
-    <t>UL/Erziehungswissenschaftliche Fakultät, Psychologie in Schule und Unterricht</t>
-  </si>
-  <si>
     <t>sandra.dietrich@uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>Lisa</t>
+  </si>
+  <si>
+    <t>Roch</t>
+  </si>
+  <si>
+    <t>lisa.roch@uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>UL/Erziehungswissenschaftliche Fakultät/Grundschuldidaktik Mathematik</t>
+  </si>
+  <si>
+    <t>UL/Erziehungswissenschaftliche Fakultät/Psychologie in Schule und Unterricht</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UL/Erziehungswissenschaftliche Fakultät/Pädagogische Psychologie mit Schwerpunkt Entwicklung unter Risikobedingungen </t>
   </si>
 </sst>
 </file>
@@ -169,13 +181,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -493,15 +506,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5495C045-FF66-4265-A72C-4E809791FDE2}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.90625" style="3"/>
     <col min="2" max="3" width="28.453125" customWidth="1"/>
-    <col min="4" max="4" width="40" customWidth="1"/>
+    <col min="4" max="4" width="47.26953125" customWidth="1"/>
     <col min="5" max="5" width="28.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -565,7 +578,7 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>13</v>
@@ -576,21 +589,33 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
@@ -674,8 +699,9 @@
     <hyperlink ref="E3" r:id="rId2" xr:uid="{502491C8-959A-453C-8B42-8DFA73F3789A}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{52FB3CF4-9FA8-4942-8AAC-CEFE7D8BD9AE}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{4BB2172E-1832-44EF-9DC3-E9C032C0CB0C}"/>
+    <hyperlink ref="E6" r:id="rId5" xr:uid="{5EBA8143-12BB-4283-8D3B-18CE94EB35EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId6"/>
 </worksheet>
 </file>
--- a/ET_Workshop/3_Anmeldeliste.xlsx
+++ b/ET_Workshop/3_Anmeldeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\ET_Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6EEF829-03EF-41AB-91D4-C95662C28E02}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7AD849-DC2F-446F-A7F1-1E53BF0D08B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8750" xr2:uid="{92A9FC4B-87AF-48E3-843D-4ACD9C08CD34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Vorname</t>
   </si>
@@ -94,6 +94,27 @@
   </si>
   <si>
     <t xml:space="preserve">UL/Erziehungswissenschaftliche Fakultät/Pädagogische Psychologie mit Schwerpunkt Entwicklung unter Risikobedingungen </t>
+  </si>
+  <si>
+    <t>maleen_thiele@eva.mpg.de</t>
+  </si>
+  <si>
+    <t>Maleen</t>
+  </si>
+  <si>
+    <t>Thiele</t>
+  </si>
+  <si>
+    <t>MPI/EVA/Comparative Cultural Psychology</t>
+  </si>
+  <si>
+    <t>Christin</t>
+  </si>
+  <si>
+    <t>Lotz</t>
+  </si>
+  <si>
+    <t>christin.lotz@uni-leipzig.de</t>
   </si>
 </sst>
 </file>
@@ -507,7 +528,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -622,10 +643,34 @@
       <c r="A7" s="3">
         <v>6</v>
       </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -700,8 +745,10 @@
     <hyperlink ref="E4" r:id="rId3" xr:uid="{52FB3CF4-9FA8-4942-8AAC-CEFE7D8BD9AE}"/>
     <hyperlink ref="E5" r:id="rId4" xr:uid="{4BB2172E-1832-44EF-9DC3-E9C032C0CB0C}"/>
     <hyperlink ref="E6" r:id="rId5" xr:uid="{5EBA8143-12BB-4283-8D3B-18CE94EB35EF}"/>
+    <hyperlink ref="E7" r:id="rId6" xr:uid="{6A578522-6444-49FD-885F-CAB3E9C8B159}"/>
+    <hyperlink ref="E8" r:id="rId7" xr:uid="{812655B5-219D-4A6C-ACC6-B23D4D6AF225}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId8"/>
 </worksheet>
 </file>
--- a/ET_Workshop/3_Anmeldeliste.xlsx
+++ b/ET_Workshop/3_Anmeldeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\ET_Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E7AD849-DC2F-446F-A7F1-1E53BF0D08B3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7F1E5-F58C-4D69-8E6D-DC21628F86E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8750" xr2:uid="{92A9FC4B-87AF-48E3-843D-4ACD9C08CD34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
   <si>
     <t>Vorname</t>
   </si>
@@ -114,14 +114,59 @@
     <t>Lotz</t>
   </si>
   <si>
-    <t>christin.lotz@uni-leipzig.de</t>
+    <t>Paula</t>
+  </si>
+  <si>
+    <t>Ríos-López</t>
+  </si>
+  <si>
+    <t>CBBS Research Group Neurocognitive Development, Leibniz Institut für Neurobiologie Magdeburg</t>
+  </si>
+  <si>
+    <t>prioslop@lin-magdeburg.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elena </t>
+  </si>
+  <si>
+    <t>Selezneva</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elena.selezneva@lin-magdeburg.de </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jana </t>
+  </si>
+  <si>
+    <t>Markert</t>
+  </si>
+  <si>
+    <t>TU Dresden/Erziehungswissenschaftliche Fakultät/Institut für Berufspädagogik und Berufliche Didaktiken</t>
+  </si>
+  <si>
+    <t>jana.markert@tu-dresden.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Claudia </t>
+  </si>
+  <si>
+    <t>Hruska</t>
+  </si>
+  <si>
+    <t>Alice Salomon Hochschule Berlin/Professur für Pädagogik der Kindheit mit Schwerpunkt Kommunikation und Sprachbildung</t>
+  </si>
+  <si>
+    <t>hruska@ash-berlin.eu</t>
+  </si>
+  <si>
+    <t>lotz.christin@uni-leipzig.de</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +186,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -202,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -210,6 +262,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -527,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5495C045-FF66-4265-A72C-4E809791FDE2}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -670,27 +726,75 @@
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
+      <c r="B9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -747,8 +851,12 @@
     <hyperlink ref="E6" r:id="rId5" xr:uid="{5EBA8143-12BB-4283-8D3B-18CE94EB35EF}"/>
     <hyperlink ref="E7" r:id="rId6" xr:uid="{6A578522-6444-49FD-885F-CAB3E9C8B159}"/>
     <hyperlink ref="E8" r:id="rId7" xr:uid="{812655B5-219D-4A6C-ACC6-B23D4D6AF225}"/>
+    <hyperlink ref="E9" r:id="rId8" display="mailto:prioslop@lin-magdeburg.de" xr:uid="{4F964901-23CA-43B7-8EAF-FE06503EB7AA}"/>
+    <hyperlink ref="E10" r:id="rId9" xr:uid="{D97F91DC-6959-468E-8B3D-1DCC7E9F611A}"/>
+    <hyperlink ref="E11" r:id="rId10" xr:uid="{2619EEFD-CD60-4690-A28E-A439853BD7B3}"/>
+    <hyperlink ref="E12" r:id="rId11" tooltip="mailto:hruska@ash-berlin.eu" display="mailto:hruska@ash-berlin.eu" xr:uid="{EE9FF6A9-8031-415B-A79D-551F0A799D54}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId12"/>
 </worksheet>
 </file>
--- a/ET_Workshop/3_Anmeldeliste.xlsx
+++ b/ET_Workshop/3_Anmeldeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\ET_Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CE7F1E5-F58C-4D69-8E6D-DC21628F86E9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0507CB-FD82-4C15-A847-1DE6138ED1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8750" xr2:uid="{92A9FC4B-87AF-48E3-843D-4ACD9C08CD34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
   <si>
     <t>Vorname</t>
   </si>
@@ -160,6 +160,15 @@
   </si>
   <si>
     <t>lotz.christin@uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>Patrick</t>
+  </si>
+  <si>
+    <t>Hawlitschek</t>
+  </si>
+  <si>
+    <t>patrickhawlitschek@gmx.de</t>
   </si>
 </sst>
 </file>
@@ -584,7 +593,7 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -801,6 +810,18 @@
       <c r="A13" s="3">
         <v>12</v>
       </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
@@ -855,8 +876,9 @@
     <hyperlink ref="E10" r:id="rId9" xr:uid="{D97F91DC-6959-468E-8B3D-1DCC7E9F611A}"/>
     <hyperlink ref="E11" r:id="rId10" xr:uid="{2619EEFD-CD60-4690-A28E-A439853BD7B3}"/>
     <hyperlink ref="E12" r:id="rId11" tooltip="mailto:hruska@ash-berlin.eu" display="mailto:hruska@ash-berlin.eu" xr:uid="{EE9FF6A9-8031-415B-A79D-551F0A799D54}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{966CE218-5711-4190-99B9-DDB50FD3F143}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId13"/>
 </worksheet>
 </file>
--- a/ET_Workshop/3_Anmeldeliste.xlsx
+++ b/ET_Workshop/3_Anmeldeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\ET_Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0507CB-FD82-4C15-A847-1DE6138ED1B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857E2E2-790D-402C-82AC-9CD389A1A550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8750" xr2:uid="{92A9FC4B-87AF-48E3-843D-4ACD9C08CD34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
   <si>
     <t>Vorname</t>
   </si>
@@ -120,9 +120,6 @@
     <t>Ríos-López</t>
   </si>
   <si>
-    <t>CBBS Research Group Neurocognitive Development, Leibniz Institut für Neurobiologie Magdeburg</t>
-  </si>
-  <si>
     <t>prioslop@lin-magdeburg.de</t>
   </si>
   <si>
@@ -169,6 +166,36 @@
   </si>
   <si>
     <t>patrickhawlitschek@gmx.de</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ranjan </t>
+  </si>
+  <si>
+    <t>Debnath</t>
+  </si>
+  <si>
+    <t>rdebnath@lin-magdeburg.de</t>
+  </si>
+  <si>
+    <t>CBBS Research Group Neurocognitive Development/Leibniz Institut für Neurobiologie/Magdeburg</t>
+  </si>
+  <si>
+    <t>Anne</t>
+  </si>
+  <si>
+    <t>Deiglmayr</t>
+  </si>
+  <si>
+    <t>anne.deiglmayr@uni-leipzig.de</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Registrierung</t>
+  </si>
+  <si>
+    <t>Einladungslink</t>
   </si>
 </sst>
 </file>
@@ -263,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -275,6 +302,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -590,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5495C045-FF66-4265-A72C-4E809791FDE2}">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,9 +635,11 @@
     <col min="2" max="3" width="28.453125" customWidth="1"/>
     <col min="4" max="4" width="47.26953125" customWidth="1"/>
     <col min="5" max="5" width="28.453125" customWidth="1"/>
+    <col min="6" max="6" width="12" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1796875" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" s="1" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -618,8 +653,14 @@
       <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F1" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -635,8 +676,14 @@
       <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F2" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -652,8 +699,14 @@
       <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -669,8 +722,14 @@
       <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F4" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -686,8 +745,14 @@
       <c r="E5" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F5" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -703,8 +768,14 @@
       <c r="E6" s="6" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F6" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -720,8 +791,14 @@
       <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F7" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -735,10 +812,16 @@
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>43</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -749,91 +832,157 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F9" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" t="s">
         <v>33</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="D10" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="D11" t="s">
         <v>37</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F11" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" t="s">
         <v>40</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>41</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="F12" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
         <v>45</v>
-      </c>
-      <c r="C13" t="s">
-        <v>46</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -877,8 +1026,10 @@
     <hyperlink ref="E11" r:id="rId10" xr:uid="{2619EEFD-CD60-4690-A28E-A439853BD7B3}"/>
     <hyperlink ref="E12" r:id="rId11" tooltip="mailto:hruska@ash-berlin.eu" display="mailto:hruska@ash-berlin.eu" xr:uid="{EE9FF6A9-8031-415B-A79D-551F0A799D54}"/>
     <hyperlink ref="E13" r:id="rId12" xr:uid="{966CE218-5711-4190-99B9-DDB50FD3F143}"/>
+    <hyperlink ref="E14" r:id="rId13" display="mailto:rdebnath@lin-magdeburg.de" xr:uid="{C7F1DF41-2C68-414F-9010-98BC440B75DD}"/>
+    <hyperlink ref="E15" r:id="rId14" xr:uid="{F351A6CC-7681-4D30-9FD0-38A4906305FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId15"/>
 </worksheet>
 </file>
--- a/ET_Workshop/3_Anmeldeliste.xlsx
+++ b/ET_Workshop/3_Anmeldeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\ET_Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A857E2E2-790D-402C-82AC-9CD389A1A550}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8BFE36-0719-4874-93F3-FE7DD891CE98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8750" xr2:uid="{92A9FC4B-87AF-48E3-843D-4ACD9C08CD34}"/>
   </bookViews>
@@ -156,9 +156,6 @@
     <t>hruska@ash-berlin.eu</t>
   </si>
   <si>
-    <t>lotz.christin@uni-leipzig.de</t>
-  </si>
-  <si>
     <t>Patrick</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>Einladungslink</t>
+  </si>
+  <si>
+    <t>lotz.christin@googlemail.com</t>
   </si>
 </sst>
 </file>
@@ -626,7 +626,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -654,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="F1" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="9" t="s">
         <v>55</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -677,10 +677,10 @@
         <v>7</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
@@ -700,10 +700,10 @@
         <v>10</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -723,10 +723,10 @@
         <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -746,10 +746,10 @@
         <v>16</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -769,10 +769,10 @@
         <v>19</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.35">
@@ -792,10 +792,10 @@
         <v>23</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -812,13 +812,13 @@
         <v>6</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -832,16 +832,16 @@
         <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.35">
@@ -855,16 +855,16 @@
         <v>33</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>34</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.35">
@@ -884,10 +884,10 @@
         <v>38</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.35">
@@ -907,10 +907,10 @@
         <v>42</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.35">
@@ -918,22 +918,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
       </c>
       <c r="D13" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.35">
@@ -941,22 +941,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C14" t="s">
         <v>47</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D14" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>49</v>
-      </c>
       <c r="F14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.35">
@@ -964,22 +964,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" t="s">
         <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
       </c>
       <c r="D15" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.35">

--- a/ET_Workshop/3_Anmeldeliste.xlsx
+++ b/ET_Workshop/3_Anmeldeliste.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk99feta\Documents\GitHub\Mandy-PhD\ET_Workshop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8BFE36-0719-4874-93F3-FE7DD891CE98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90F0999-C216-42C5-BC74-95D56635B2DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8750" xr2:uid="{92A9FC4B-87AF-48E3-843D-4ACD9C08CD34}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="60">
   <si>
     <t>Vorname</t>
   </si>
@@ -196,6 +196,15 @@
   </si>
   <si>
     <t>lotz.christin@googlemail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steven </t>
+  </si>
+  <si>
+    <t>Kalinke</t>
+  </si>
+  <si>
+    <t>steven_kalinke@eva.mpg.de</t>
   </si>
 </sst>
 </file>
@@ -625,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5495C045-FF66-4265-A72C-4E809791FDE2}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -986,6 +995,24 @@
       <c r="A16" s="3">
         <v>15</v>
       </c>
+      <c r="B16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="3">
@@ -1028,8 +1055,9 @@
     <hyperlink ref="E13" r:id="rId12" xr:uid="{966CE218-5711-4190-99B9-DDB50FD3F143}"/>
     <hyperlink ref="E14" r:id="rId13" display="mailto:rdebnath@lin-magdeburg.de" xr:uid="{C7F1DF41-2C68-414F-9010-98BC440B75DD}"/>
     <hyperlink ref="E15" r:id="rId14" xr:uid="{F351A6CC-7681-4D30-9FD0-38A4906305FA}"/>
+    <hyperlink ref="E16" r:id="rId15" xr:uid="{952C9C69-9308-4A94-8E64-5BB62188D6E6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="1200" r:id="rId16"/>
 </worksheet>
 </file>